--- a/mainPage.xlsx
+++ b/mainPage.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="mainPage" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -53,6 +54,24 @@
   </si>
   <si>
     <t xml:space="preserve">Book1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a desk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이것은 한 책상이다</t>
   </si>
 </sst>
 </file>
@@ -62,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,6 +111,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,13 +168,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -171,11 +200,11 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
@@ -233,4 +262,55 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/mainPage.xlsx
+++ b/mainPage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="mainPage" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -32,28 +32,16 @@
     <t xml:space="preserve">subTitle</t>
   </si>
   <si>
-    <t xml:space="preserve">220601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford Reading Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tip Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watch Your Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daisy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book1</t>
+    <t xml:space="preserve">ORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book3</t>
   </si>
   <si>
     <t xml:space="preserve">English</t>
@@ -62,16 +50,58 @@
     <t xml:space="preserve">Korean</t>
   </si>
   <si>
-    <t xml:space="preserve">Hello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">안녕</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a desk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이것은 한 책상이다</t>
+    <t xml:space="preserve">I’m a boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 소년이다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a house</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">이것은 한 집이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The sun came up early this morning, but I couldn't get up because I slept late yesterday.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">오늘 아침에 해가 일찍 떴지만 어제 늦게 잤기 때문에 일어날 수 없었다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -200,57 +230,119 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>220530</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>220601</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>220602</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -262,55 +354,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/mainPage.xlsx
+++ b/mainPage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mainPage" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,6 +65,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이것은 한 집이다</t>
     </r>
@@ -89,6 +90,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">오늘 아침에 해가 일찍 떴지만 어제 늦게 잤기 때문에 일어날 수 없었다</t>
     </r>
@@ -147,6 +149,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,8 +201,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,53 +237,53 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>220530</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>220601</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>220602</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -296,52 +303,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
